--- a/inst/extdata/link_polidoc_parties.xlsx
+++ b/inst/extdata/link_polidoc_parties.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25427"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rober\Git_Projekte\bundeslaendeR\inst\extdata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rober\Desktop\blcbadd\bundeslaendeR\inst\extdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF5E7485-F9CF-4584-9DCA-BFD28895709F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA7C18B1-60C8-4BEA-9E13-4DF145C736B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -3729,8 +3729,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E2844"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" topLeftCell="A1382" workbookViewId="0">
+      <selection activeCell="D1416" sqref="D1416"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20308,9 +20308,6 @@
       <c r="C1414" t="s">
         <v>10</v>
       </c>
-      <c r="D1414" t="s">
-        <v>726</v>
-      </c>
     </row>
     <row r="1415" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1415" t="s">
@@ -20332,6 +20329,9 @@
       </c>
       <c r="C1416" t="s">
         <v>253</v>
+      </c>
+      <c r="D1416" t="s">
+        <v>726</v>
       </c>
     </row>
     <row r="1417" spans="1:4" x14ac:dyDescent="0.25">

--- a/inst/extdata/link_polidoc_parties.xlsx
+++ b/inst/extdata/link_polidoc_parties.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rober\Desktop\blcbadd\bundeslaendeR\inst\extdata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\au785183\git_projects\bundeslaendeR\inst\extdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA7C18B1-60C8-4BEA-9E13-4DF145C736B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EB7A3D1-AE2A-4D81-8BE2-280D66746BAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6398" uniqueCount="1102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6402" uniqueCount="1104">
   <si>
     <t>state</t>
   </si>
@@ -3337,6 +3337,12 @@
   </si>
   <si>
     <t>polidoc_id_2</t>
+  </si>
+  <si>
+    <t>41953.014.2019.1.1</t>
+  </si>
+  <si>
+    <t>41953.014.2024.1.1</t>
   </si>
 </sst>
 </file>
@@ -3391,7 +3397,7 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -3407,9 +3413,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -3447,9 +3453,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3482,26 +3488,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3534,26 +3523,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -3727,13 +3699,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E2844"/>
+  <dimension ref="A1:E2845"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1382" workbookViewId="0">
-      <selection activeCell="D1416" sqref="D1416"/>
+    <sheetView tabSelected="1" topLeftCell="A2828" workbookViewId="0">
+      <selection activeCell="D2844" sqref="D2844"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="20.7109375" style="2" customWidth="1"/>
     <col min="3" max="3" width="21.85546875" customWidth="1"/>
@@ -33642,7 +33614,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2545" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2545" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2545" t="s">
         <v>348</v>
       </c>
@@ -33653,7 +33625,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2546" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2546" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2546" t="s">
         <v>348</v>
       </c>
@@ -33663,8 +33635,11 @@
       <c r="C2546" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="2547" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2546" t="s">
+        <v>1102</v>
+      </c>
+    </row>
+    <row r="2547" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2547" t="s">
         <v>348</v>
       </c>
@@ -33675,7 +33650,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2548" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2548" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2548" t="s">
         <v>348</v>
       </c>
@@ -33686,7 +33661,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2549" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2549" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2549" t="s">
         <v>348</v>
       </c>
@@ -33697,7 +33672,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2550" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2550" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2550" t="s">
         <v>348</v>
       </c>
@@ -33708,7 +33683,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2551" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2551" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2551" t="s">
         <v>348</v>
       </c>
@@ -33719,7 +33694,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="2552" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2552" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2552" t="s">
         <v>348</v>
       </c>
@@ -33730,7 +33705,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="2553" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2553" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2553" t="s">
         <v>348</v>
       </c>
@@ -33741,7 +33716,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2554" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2554" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2554" t="s">
         <v>348</v>
       </c>
@@ -33752,7 +33727,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2555" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2555" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2555" t="s">
         <v>348</v>
       </c>
@@ -33763,7 +33738,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="2556" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2556" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2556" t="s">
         <v>348</v>
       </c>
@@ -33774,7 +33749,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="2557" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2557" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2557" t="s">
         <v>348</v>
       </c>
@@ -33785,7 +33760,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2558" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2558" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2558" t="s">
         <v>348</v>
       </c>
@@ -33796,7 +33771,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2559" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2559" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2559" t="s">
         <v>348</v>
       </c>
@@ -33807,7 +33782,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="2560" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2560" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2560" t="s">
         <v>348</v>
       </c>
@@ -37020,7 +36995,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2833" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2833" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2833" t="s">
         <v>252</v>
       </c>
@@ -37031,7 +37006,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2834" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2834" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2834" t="s">
         <v>252</v>
       </c>
@@ -37042,7 +37017,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="2835" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2835" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2835" t="s">
         <v>252</v>
       </c>
@@ -37053,7 +37028,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="2836" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2836" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2836" t="s">
         <v>252</v>
       </c>
@@ -37064,7 +37039,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="2837" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2837" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2837" t="s">
         <v>252</v>
       </c>
@@ -37075,7 +37050,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="2838" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2838" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2838" t="s">
         <v>252</v>
       </c>
@@ -37086,7 +37061,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="2839" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2839" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2839" t="s">
         <v>252</v>
       </c>
@@ -37097,7 +37072,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="2840" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2840" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2840" t="s">
         <v>252</v>
       </c>
@@ -37108,7 +37083,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2841" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2841" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2841" t="s">
         <v>252</v>
       </c>
@@ -37119,7 +37094,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="2842" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2842" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2842" t="s">
         <v>252</v>
       </c>
@@ -37130,7 +37105,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="2843" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2843" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2843" t="s">
         <v>252</v>
       </c>
@@ -37141,7 +37116,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="2844" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2844" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2844" t="s">
         <v>252</v>
       </c>
@@ -37150,6 +37125,20 @@
       </c>
       <c r="C2844" t="s">
         <v>91</v>
+      </c>
+    </row>
+    <row r="2845" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2845" t="s">
+        <v>348</v>
+      </c>
+      <c r="B2845" s="2">
+        <v>45536</v>
+      </c>
+      <c r="C2845" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2845" t="s">
+        <v>1103</v>
       </c>
     </row>
   </sheetData>
